--- a/Assets/Refactoring/06_Data/Excel/StageData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/StageData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxca0\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1533DC-1206-4CFA-9743-2016F8D35B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CF27D-FE15-495C-B7B7-ACD1DA412684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58995" yWindow="2970" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>SpawnMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,228 +427,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>1.5</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>1.3</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.9</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.7</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.5</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H37">
-    <sortCondition ref="E37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:I37">
+    <sortCondition ref="F37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Refactoring/06_Data/Excel/StageData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/StageData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxca0\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CF27D-FE15-495C-B7B7-ACD1DA412684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD1A895-7103-4038-96FC-EA289FAB8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="11175" yWindow="4995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,75 +506,15 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.9</v>
-      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.7</v>
-      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/Refactoring/06_Data/Excel/StageData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD1A895-7103-4038-96FC-EA289FAB8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE27A4-2138-4523-BEB6-AAFA02C2F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="4995" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>DropGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dHealth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,6 +472,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -485,6 +492,9 @@
       <c r="E2" s="1">
         <v>1.5</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -502,6 +512,9 @@
       </c>
       <c r="E3" s="1">
         <v>1.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
       </c>
       <c r="H3" s="2"/>
     </row>

--- a/Assets/Refactoring/06_Data/Excel/StageData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE27A4-2138-4523-BEB6-AAFA02C2F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9F0B4-3A2F-46A7-B886-522DCB7BE7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21810" windowHeight="21390" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="21870" yWindow="7995" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,22 @@
   </si>
   <si>
     <t>dHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsBossStage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +450,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,7 +461,7 @@
     <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -475,72 +491,272 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>180</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>300</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>800</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H11" s="2"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>

--- a/Assets/Refactoring/06_Data/Excel/StageData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9F0B4-3A2F-46A7-B886-522DCB7BE7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF31A2E-54B6-4E82-B988-25D75467B87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21870" yWindow="7995" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="24330" yWindow="6900" windowWidth="20085" windowHeight="12090" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>30</v>
@@ -512,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>30</v>
@@ -538,13 +538,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F3" s="1">
         <v>50</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
@@ -564,13 +564,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -581,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
@@ -590,13 +590,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F5" s="1">
         <v>180</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -616,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>300</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>30</v>
@@ -642,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>500</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -668,13 +668,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>800</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -700,7 +700,7 @@
         <v>1200</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>8</v>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
@@ -726,7 +726,7 @@
         <v>1800</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>8</v>
@@ -749,10 +749,10 @@
         <v>0.8</v>
       </c>
       <c r="F11" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>

--- a/Assets/Refactoring/06_Data/Excel/StageData.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF31A2E-54B6-4E82-B988-25D75467B87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC80EFC-481C-4E80-BD62-5BB8F1289C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24330" yWindow="6900" windowWidth="20085" windowHeight="12090" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="35370" yWindow="4245" windowWidth="20085" windowHeight="17205" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>1.2</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>4</v>
@@ -541,7 +541,7 @@
         <v>1.2</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
@@ -567,7 +567,7 @@
         <v>1.2</v>
       </c>
       <c r="F4" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
@@ -593,7 +593,7 @@
         <v>1.2</v>
       </c>
       <c r="F5" s="1">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -697,7 +697,7 @@
         <v>0.8</v>
       </c>
       <c r="F9" s="1">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -723,7 +723,7 @@
         <v>0.8</v>
       </c>
       <c r="F10" s="1">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="G10" s="1">
         <v>4</v>
@@ -749,7 +749,7 @@
         <v>0.8</v>
       </c>
       <c r="F11" s="1">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
